--- a/xlsx/FR/CC_impacts_FR.xlsx
+++ b/xlsx/FR/CC_impacts_FR.xlsx
@@ -12,30 +12,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">More frequent volcanic eruptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extinction of humankind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More armed conflicts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drop in standards of living</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower agricultural production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rising sea levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Larger migration flows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Severe droughts and heatwaves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very likely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somewhat likely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somewhat unlikely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very unlikely</t>
   </si>
 </sst>
 </file>
@@ -380,61 +395,136 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
+        <v>0.191074566142068</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204944555347326</v>
+        <v>0.223703243461164</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.274655367615306</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.261945118300558</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.31110074415704</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.467082773790969</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.483112419248128</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.519813404068799</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
+        <v>0.395218325324411</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244554338774632</v>
+        <v>0.363990051833171</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.421218060348556</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.44367637348737</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.444569520990089</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.357842635171862</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.345790530086574</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.329614663431759</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
+        <v>0.26944352918131</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248694436345023</v>
+        <v>0.265168719165338</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.206856241255447</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.219400528829934</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.163463974543938</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0979047716591545</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.113275172933397</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0853967854483742</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B5" t="n">
-        <v>0.215204024594746</v>
+        <v>0.144263579352211</v>
       </c>
       <c r="C5" t="n">
-        <v>0.301806669533019</v>
+        <v>0.147137985540328</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3137</v>
+        <v>0.0972703307806917</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0749779793821384</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0808657603089328</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0771698193780142</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0578218777319016</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0651751470510682</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/CC_impacts_FR.xlsx
+++ b/xlsx/FR/CC_impacts_FR.xlsx
@@ -17,10 +17,10 @@
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">Extinction of humankind</t>
+  </si>
+  <si>
     <t xml:space="preserve">More frequent volcanic eruptions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extinction of humankind</t>
   </si>
   <si>
     <t xml:space="preserve">More armed conflicts</t>
@@ -416,28 +416,28 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>0.191074566142068</v>
+        <v>0.254179605888388</v>
       </c>
       <c r="C2" t="n">
-        <v>0.223703243461164</v>
+        <v>0.207009892211394</v>
       </c>
       <c r="D2" t="n">
-        <v>0.274655367615306</v>
+        <v>0.305220933474666</v>
       </c>
       <c r="E2" t="n">
-        <v>0.261945118300558</v>
+        <v>0.292800250504922</v>
       </c>
       <c r="F2" t="n">
-        <v>0.31110074415704</v>
+        <v>0.318713715329794</v>
       </c>
       <c r="G2" t="n">
-        <v>0.467082773790969</v>
+        <v>0.490448894483383</v>
       </c>
       <c r="H2" t="n">
-        <v>0.483112419248128</v>
+        <v>0.506930829223179</v>
       </c>
       <c r="I2" t="n">
-        <v>0.519813404068799</v>
+        <v>0.526569361956738</v>
       </c>
     </row>
     <row r="3">
@@ -445,28 +445,28 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>0.395218325324411</v>
+        <v>0.335217106764256</v>
       </c>
       <c r="C3" t="n">
-        <v>0.363990051833171</v>
+        <v>0.417399182876064</v>
       </c>
       <c r="D3" t="n">
-        <v>0.421218060348556</v>
+        <v>0.406264097429362</v>
       </c>
       <c r="E3" t="n">
-        <v>0.44367637348737</v>
+        <v>0.438089891478594</v>
       </c>
       <c r="F3" t="n">
-        <v>0.444569520990089</v>
+        <v>0.45138395720235</v>
       </c>
       <c r="G3" t="n">
-        <v>0.357842635171862</v>
+        <v>0.337345060120352</v>
       </c>
       <c r="H3" t="n">
-        <v>0.345790530086574</v>
+        <v>0.328160237101784</v>
       </c>
       <c r="I3" t="n">
-        <v>0.329614663431759</v>
+        <v>0.328754105383202</v>
       </c>
     </row>
     <row r="4">
@@ -474,28 +474,28 @@
         <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>0.26944352918131</v>
+        <v>0.271264212333757</v>
       </c>
       <c r="C4" t="n">
-        <v>0.265168719165338</v>
+        <v>0.242926557238246</v>
       </c>
       <c r="D4" t="n">
-        <v>0.206856241255447</v>
+        <v>0.197426655784014</v>
       </c>
       <c r="E4" t="n">
-        <v>0.219400528829934</v>
+        <v>0.193884118897848</v>
       </c>
       <c r="F4" t="n">
-        <v>0.163463974543938</v>
+        <v>0.147512701766265</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0979047716591545</v>
+        <v>0.09970349377782</v>
       </c>
       <c r="H4" t="n">
-        <v>0.113275172933397</v>
+        <v>0.0978997165502216</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0853967854483742</v>
+        <v>0.0775497717213527</v>
       </c>
     </row>
     <row r="5">
@@ -503,28 +503,28 @@
         <v>12</v>
       </c>
       <c r="B5" t="n">
-        <v>0.144263579352211</v>
+        <v>0.139339075013599</v>
       </c>
       <c r="C5" t="n">
-        <v>0.147137985540328</v>
+        <v>0.132664367674295</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0972703307806917</v>
+        <v>0.0910883133119589</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0749779793821384</v>
+        <v>0.0752257391186355</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0808657603089328</v>
+        <v>0.0823896257015913</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0771698193780142</v>
+        <v>0.0725025516184444</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0578218777319016</v>
+        <v>0.067009217124815</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0651751470510682</v>
+        <v>0.0671267609387077</v>
       </c>
     </row>
   </sheetData>
